--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mcam-Mcam.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="H2">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="I2">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="J2">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="N2">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="O2">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="P2">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="Q2">
-        <v>269.953639511261</v>
+        <v>1618.809518362624</v>
       </c>
       <c r="R2">
-        <v>269.953639511261</v>
+        <v>14569.28566526362</v>
       </c>
       <c r="S2">
-        <v>0.1169838026855482</v>
+        <v>0.2697823437984228</v>
       </c>
       <c r="T2">
-        <v>0.1169838026855482</v>
+        <v>0.2697823437984228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="H3">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="I3">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="J3">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="N3">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="O3">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="P3">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="Q3">
-        <v>38.12230523077758</v>
+        <v>104.0119882388907</v>
       </c>
       <c r="R3">
-        <v>38.12230523077758</v>
+        <v>936.107894150016</v>
       </c>
       <c r="S3">
-        <v>0.01652021525292121</v>
+        <v>0.01733409499507041</v>
       </c>
       <c r="T3">
-        <v>0.01652021525292121</v>
+        <v>0.01733409499507042</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="H4">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="I4">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="J4">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="N4">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="O4">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="P4">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="Q4">
-        <v>8.545721862979279</v>
+        <v>21.147539334656</v>
       </c>
       <c r="R4">
-        <v>8.545721862979279</v>
+        <v>190.327854011904</v>
       </c>
       <c r="S4">
-        <v>0.003703269354079744</v>
+        <v>0.003524338510835728</v>
       </c>
       <c r="T4">
-        <v>0.003703269354079744</v>
+        <v>0.003524338510835728</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="H5">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="I5">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="J5">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="N5">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="O5">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="P5">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="Q5">
-        <v>472.6496493362723</v>
+        <v>1372.687799630635</v>
       </c>
       <c r="R5">
-        <v>472.6496493362723</v>
+        <v>12354.19019667571</v>
       </c>
       <c r="S5">
-        <v>0.20482166277681</v>
+        <v>0.2287649829625579</v>
       </c>
       <c r="T5">
-        <v>0.20482166277681</v>
+        <v>0.228764982962558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="H6">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="I6">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="J6">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="N6">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="O6">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="P6">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="Q6">
-        <v>38.12230523077758</v>
+        <v>104.0119882388907</v>
       </c>
       <c r="R6">
-        <v>38.12230523077758</v>
+        <v>936.107894150016</v>
       </c>
       <c r="S6">
-        <v>0.01652021525292121</v>
+        <v>0.01733409499507041</v>
       </c>
       <c r="T6">
-        <v>0.01652021525292121</v>
+        <v>0.01733409499507042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="H7">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="I7">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="J7">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="N7">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="O7">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="P7">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="Q7">
-        <v>5.383554593817387</v>
+        <v>6.682993628768444</v>
       </c>
       <c r="R7">
-        <v>5.383554593817387</v>
+        <v>60.146942658916</v>
       </c>
       <c r="S7">
-        <v>0.002332951278190634</v>
+        <v>0.00111375283151455</v>
       </c>
       <c r="T7">
-        <v>0.002332951278190634</v>
+        <v>0.00111375283151455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="H8">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="I8">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="J8">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="N8">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="O8">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="P8">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="Q8">
-        <v>1.206809502059836</v>
+        <v>1.358774820389333</v>
       </c>
       <c r="R8">
-        <v>1.206809502059836</v>
+        <v>12.228973383504</v>
       </c>
       <c r="S8">
-        <v>0.0005229681841800967</v>
+        <v>0.0002264463184709297</v>
       </c>
       <c r="T8">
-        <v>0.0005229681841800967</v>
+        <v>0.0002264463184709298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="H9">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="I9">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="J9">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="N9">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="O9">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="P9">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="Q9">
-        <v>66.74662446425633</v>
+        <v>88.19813921977911</v>
       </c>
       <c r="R9">
-        <v>66.74662446425633</v>
+        <v>793.7832529780121</v>
       </c>
       <c r="S9">
-        <v>0.02892449963034201</v>
+        <v>0.01469864146921918</v>
       </c>
       <c r="T9">
-        <v>0.02892449963034201</v>
+        <v>0.01469864146921919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="H10">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="I10">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="J10">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="N10">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="O10">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="P10">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="Q10">
-        <v>8.545721862979279</v>
+        <v>21.147539334656</v>
       </c>
       <c r="R10">
-        <v>8.545721862979279</v>
+        <v>190.327854011904</v>
       </c>
       <c r="S10">
-        <v>0.003703269354079744</v>
+        <v>0.003524338510835728</v>
       </c>
       <c r="T10">
-        <v>0.003703269354079744</v>
+        <v>0.003524338510835728</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,52 +1086,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="H11">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="I11">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="J11">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="N11">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="O11">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="P11">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="Q11">
-        <v>1.206809502059836</v>
+        <v>1.358774820389333</v>
       </c>
       <c r="R11">
-        <v>1.206809502059836</v>
+        <v>12.228973383504</v>
       </c>
       <c r="S11">
-        <v>0.0005229681841800967</v>
+        <v>0.0002264463184709297</v>
       </c>
       <c r="T11">
-        <v>0.0005229681841800967</v>
+        <v>0.0002264463184709298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,52 +1148,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="H12">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="I12">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="J12">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="N12">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="O12">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="P12">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="Q12">
-        <v>0.2705255698408751</v>
+        <v>0.276263769664</v>
       </c>
       <c r="R12">
-        <v>0.2705255698408751</v>
+        <v>2.486373926976</v>
       </c>
       <c r="S12">
-        <v>0.0001172316474078886</v>
+        <v>4.604067769624149E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001172316474078886</v>
+        <v>4.60406776962415E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,52 +1210,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="H13">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="I13">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="J13">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="N13">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="O13">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="P13">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="Q13">
-        <v>14.96231889733045</v>
+        <v>17.93229463232533</v>
       </c>
       <c r="R13">
-        <v>14.96231889733045</v>
+        <v>161.390651690928</v>
       </c>
       <c r="S13">
-        <v>0.006483887251057193</v>
+        <v>0.002988502613010272</v>
       </c>
       <c r="T13">
-        <v>0.006483887251057193</v>
+        <v>0.002988502613010274</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,52 +1272,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="H14">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="I14">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="J14">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>16.4302659598456</v>
+        <v>40.23443200000001</v>
       </c>
       <c r="N14">
-        <v>16.4302659598456</v>
+        <v>120.703296</v>
       </c>
       <c r="O14">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="P14">
-        <v>0.3420289500693592</v>
+        <v>0.5194057602668869</v>
       </c>
       <c r="Q14">
-        <v>472.6496493362723</v>
+        <v>1372.687799630635</v>
       </c>
       <c r="R14">
-        <v>472.6496493362723</v>
+        <v>12354.19019667571</v>
       </c>
       <c r="S14">
-        <v>0.20482166277681</v>
+        <v>0.2287649829625579</v>
       </c>
       <c r="T14">
-        <v>0.20482166277681</v>
+        <v>0.228764982962558</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,52 +1334,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="H15">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="I15">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="J15">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.3202488215313</v>
+        <v>2.585148666666667</v>
       </c>
       <c r="N15">
-        <v>2.3202488215313</v>
+        <v>7.755446</v>
       </c>
       <c r="O15">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427507</v>
       </c>
       <c r="P15">
-        <v>0.04830063434563395</v>
+        <v>0.03337293561427508</v>
       </c>
       <c r="Q15">
-        <v>66.74662446425633</v>
+        <v>88.19813921977911</v>
       </c>
       <c r="R15">
-        <v>66.74662446425633</v>
+        <v>793.7832529780121</v>
       </c>
       <c r="S15">
-        <v>0.02892449963034201</v>
+        <v>0.01469864146921918</v>
       </c>
       <c r="T15">
-        <v>0.02892449963034201</v>
+        <v>0.01469864146921919</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,52 +1396,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="H16">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="I16">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="J16">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5201207262173611</v>
+        <v>0.525608</v>
       </c>
       <c r="N16">
-        <v>0.5201207262173611</v>
+        <v>1.576824</v>
       </c>
       <c r="O16">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013172</v>
       </c>
       <c r="P16">
-        <v>0.01082735643672492</v>
+        <v>0.006785328120013173</v>
       </c>
       <c r="Q16">
-        <v>14.96231889733045</v>
+        <v>17.93229463232533</v>
       </c>
       <c r="R16">
-        <v>14.96231889733045</v>
+        <v>161.390651690928</v>
       </c>
       <c r="S16">
-        <v>0.006483887251057193</v>
+        <v>0.002988502613010272</v>
       </c>
       <c r="T16">
-        <v>0.006483887251057193</v>
+        <v>0.002988502613010274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="H17">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="I17">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="J17">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>28.7670114708669</v>
+        <v>34.11724066666667</v>
       </c>
       <c r="N17">
-        <v>28.7670114708669</v>
+        <v>102.351722</v>
       </c>
       <c r="O17">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988248</v>
       </c>
       <c r="P17">
-        <v>0.5988430591482818</v>
+        <v>0.4404359759988249</v>
       </c>
       <c r="Q17">
-        <v>827.5409489649878</v>
+        <v>1163.986110707254</v>
       </c>
       <c r="R17">
-        <v>827.5409489649878</v>
+        <v>10475.87499636529</v>
       </c>
       <c r="S17">
-        <v>0.3586130094900726</v>
+        <v>0.1939838489540374</v>
       </c>
       <c r="T17">
-        <v>0.3586130094900726</v>
+        <v>0.1939838489540374</v>
       </c>
     </row>
   </sheetData>
